--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +113,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -126,12 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -141,6 +148,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -189,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,9 +232,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,6 +284,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,17 +480,17 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="32" width="3.7109375" customWidth="1"/>
+    <col min="3" max="32" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -544,7 +588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -557,7 +601,7 @@
       <c r="F2" s="1"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -571,7 +615,7 @@
       <c r="K3" s="1"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -581,18 +625,18 @@
       <c r="G4" s="1"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -607,7 +651,7 @@
       <c r="I6" s="3"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -623,7 +667,7 @@
       <c r="N7" s="1"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -639,61 +683,61 @@
       <c r="N8" s="1"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="32:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="32:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="32:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="32:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="32:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="32:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="32:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF23" s="2"/>
     </row>
   </sheetData>
@@ -708,7 +752,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -720,7 +764,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,26 +232,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,23 +267,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,14 +446,14 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="32" width="3.6640625" customWidth="1"/>
+    <col min="3" max="32" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
@@ -595,10 +561,10 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -752,7 +718,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -764,7 +730,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,11 +574,13 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
@@ -588,7 +590,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="AF4" s="2"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,10 +577,10 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
@@ -590,7 +590,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="5"/>
       <c r="AF4" s="2"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
@@ -611,11 +611,11 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="3"/>
       <c r="AF6" s="2"/>
     </row>

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiadifatta/Documents/GitHub/BiasielliCapoDifatta/DD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -141,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -157,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -199,12 +212,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -234,12 +247,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -446,17 +459,17 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H7" sqref="H7:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="32" width="3.7109375" customWidth="1"/>
+    <col min="3" max="32" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -554,7 +567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -567,7 +580,7 @@
       <c r="F2" s="5"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -583,7 +596,7 @@
       <c r="M3" s="5"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -593,7 +606,7 @@
       <c r="L4" s="5"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -604,7 +617,7 @@
       <c r="D5" s="5"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -619,23 +632,23 @@
       <c r="I6" s="3"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -651,61 +664,61 @@
       <c r="N8" s="1"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF23" s="2"/>
     </row>
   </sheetData>
@@ -720,7 +733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -732,7 +745,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>WHO</t>
   </si>
@@ -459,7 +459,7 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:N7"/>
+      <selection activeCell="L10" sqref="L10:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -674,6 +674,15 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
       <c r="AF10" s="2"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiadifatta/Documents/GitHub/BiasielliCapoDifatta/DD/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14600"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>WHO</t>
   </si>
@@ -74,9 +66,6 @@
   </si>
   <si>
     <t>Architectural Design G</t>
-  </si>
-  <si>
-    <t>Architectural Design H</t>
   </si>
 </sst>
 </file>
@@ -154,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -212,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -247,7 +236,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -459,14 +448,14 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:Q10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="32" width="3.6640625" customWidth="1"/>
+    <col min="3" max="32" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
@@ -655,19 +644,30 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
       <c r="AF8" s="2"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
       <c r="AF9" s="2"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
@@ -689,12 +689,16 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
       <c r="AF11" s="2"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -742,7 +746,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -754,7 +758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="432" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,17 +448,17 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="32" width="3.7109375" customWidth="1"/>
+    <col min="3" max="32" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -556,7 +556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -569,7 +569,7 @@
       <c r="F2" s="5"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -585,7 +585,7 @@
       <c r="M3" s="5"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -595,7 +595,7 @@
       <c r="L4" s="5"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -606,7 +606,7 @@
       <c r="D5" s="5"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="I6" s="3"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -637,7 +637,7 @@
       <c r="N7" s="5"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -656,21 +656,21 @@
       <c r="Q8" s="1"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="Q10" s="1"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -698,40 +698,40 @@
       <c r="T11" s="1"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF23" s="2"/>
     </row>
   </sheetData>
@@ -746,7 +746,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -758,7 +758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="432" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>WHO</t>
   </si>
@@ -66,12 +66,21 @@
   </si>
   <si>
     <t>Architectural Design G</t>
+  </si>
+  <si>
+    <t>API Manager Implementation</t>
+  </si>
+  <si>
+    <t>Data Layer Implementation</t>
+  </si>
+  <si>
+    <t>Java Class Structure Building</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,14 +457,14 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="32" width="3.6640625" customWidth="1"/>
+    <col min="3" max="32" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
@@ -699,12 +708,44 @@
       <c r="AF11" s="2"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
@@ -746,7 +787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -758,7 +799,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiadifatta/Documents/GitHub/BiasielliCapoDifatta/DD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -81,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +108,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,16 +158,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -457,17 +473,17 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="32" width="3.7109375" customWidth="1"/>
+    <col min="3" max="32" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -565,7 +581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -578,7 +594,7 @@
       <c r="F2" s="5"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -594,7 +610,7 @@
       <c r="M3" s="5"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -604,7 +620,7 @@
       <c r="L4" s="5"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -615,7 +631,7 @@
       <c r="D5" s="5"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -630,7 +646,7 @@
       <c r="I6" s="3"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -646,7 +662,7 @@
       <c r="N7" s="5"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -665,7 +681,7 @@
       <c r="Q8" s="1"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -679,22 +695,22 @@
       <c r="N9" s="5"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -707,7 +723,7 @@
       <c r="T11" s="1"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -720,7 +736,7 @@
       <c r="N12" s="5"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -734,7 +750,7 @@
       <c r="S13" s="1"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -748,31 +764,31 @@
       <c r="S14" s="1"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF23" s="2"/>
     </row>
   </sheetData>
@@ -787,7 +803,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -799,7 +815,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiadifatta/Documents/GitHub/BiasielliCapoDifatta/DD/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14600"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>WHO</t>
   </si>
@@ -82,7 +74,13 @@
     <t>Data Layer Implementation</t>
   </si>
   <si>
-    <t>Java Class Structure Building</t>
+    <t>Java Class Structure Building (controller)</t>
+  </si>
+  <si>
+    <t>REQUIREMENTS TRACEABILITY</t>
+  </si>
+  <si>
+    <t>IMPLEMENTATION, INTEGRATION AND TEST PLAN</t>
   </si>
 </sst>
 </file>
@@ -168,7 +166,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -473,14 +471,14 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="32" width="3.6640625" customWidth="1"/>
+    <col min="3" max="32" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
@@ -717,10 +715,10 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
       <c r="AF11" s="2"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -743,11 +741,11 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -757,17 +755,35 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="32:32" x14ac:dyDescent="0.2">
@@ -803,7 +819,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -815,7 +831,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>WHO</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>IMPLEMENTATION, INTEGRATION AND TEST PLAN</t>
+  </si>
+  <si>
+    <t>Group review</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,25 +792,33 @@
       <c r="S16" s="5"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF23" s="2"/>
     </row>
   </sheetData>

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiadifatta/Documents/GitHub/BiasielliCapoDifatta/DD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -13,6 +18,9 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -172,7 +180,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -477,14 +485,14 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="S15" sqref="Q15:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="32" width="3.7109375" customWidth="1"/>
+    <col min="3" max="32" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
@@ -775,9 +783,9 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -833,7 +841,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -845,7 +853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiadifatta/Documents/GitHub/BiasielliCapoDifatta/DD/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14600"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -101,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +119,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -178,9 +177,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -485,14 +485,14 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="Q15:S15"/>
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="32" width="3.6640625" customWidth="1"/>
+    <col min="3" max="32" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
@@ -686,11 +686,11 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
       <c r="AF8" s="2"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -800,14 +800,14 @@
       <c r="S16" s="5"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="1"/>
+      <c r="W17" s="7"/>
       <c r="X17" s="1"/>
       <c r="AF17" s="2"/>
     </row>
@@ -841,7 +841,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -853,7 +853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DD/GANTT.xlsx
+++ b/DD/GANTT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>WHO</t>
   </si>
@@ -131,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,12 +141,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,15 +163,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -485,7 +478,7 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +498,7 @@
       <c r="C1">
         <v>28</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>29</v>
       </c>
       <c r="E1">
@@ -526,7 +519,7 @@
       <c r="J1">
         <v>4</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>5</v>
       </c>
       <c r="L1">
@@ -547,7 +540,7 @@
       <c r="Q1">
         <v>11</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="3">
         <v>12</v>
       </c>
       <c r="S1">
@@ -568,7 +561,7 @@
       <c r="X1">
         <v>18</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1" s="3">
         <v>19</v>
       </c>
       <c r="Z1">
@@ -589,7 +582,7 @@
       <c r="AE1">
         <v>25</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="3">
         <v>26</v>
       </c>
     </row>
@@ -600,11 +593,11 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="AF2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -613,14 +606,14 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="AF3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="AF3" s="1"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -629,8 +622,8 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="AF4" s="2"/>
+      <c r="L4" s="4"/>
+      <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -639,9 +632,9 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="AF5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="AF5" s="1"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -650,13 +643,13 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="3"/>
-      <c r="AF6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2"/>
+      <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -665,14 +658,14 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="AF7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -681,17 +674,17 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="AF8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -700,12 +693,12 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="AF9" s="2"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -714,13 +707,13 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="AF10" s="2"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -729,11 +722,11 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="AF11" s="2"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -742,11 +735,11 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="AF12" s="2"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -755,12 +748,12 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="AF13" s="2"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -769,12 +762,12 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="AF14" s="2"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -783,10 +776,10 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="AF15" s="2"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -795,10 +788,10 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="AF16" s="2"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -807,27 +800,34 @@
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="7"/>
-      <c r="X17" s="1"/>
-      <c r="AF17" s="2"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="4"/>
+      <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AF18" s="2"/>
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB18" s="4"/>
+      <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AF19" s="2"/>
+      <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AF20" s="2"/>
+      <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AF21" s="2"/>
+      <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AF22" s="2"/>
+      <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AF23" s="2"/>
+      <c r="AF23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
